--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/PCA/PCA_B.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/PCA/PCA_B.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\PCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5085252-F3A4-490B-8FC6-E36495BC7A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C1FE723-DE88-4DB3-9F72-73D6093717C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -558,7 +557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -970,14 +969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D15F5A6-D6F7-4479-B352-1468DB6DA428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5647,11 +5646,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R83" xr:uid="{5D15F5A6-D6F7-4479-B352-1468DB6DA428}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R83">
-      <sortCondition ref="A1:A83"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
